--- a/11_KS_연도별_보고서작성/Data/Output/KS Vendor Information 2023 Yearly Report.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Output/KS Vendor Information 2023 Yearly Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A632D8-2970-4A68-9680-A7B9BC1B3205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A04DA-6D90-4531-B24E-64A0E3A104C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3870" yWindow="-21270" windowWidth="13500" windowHeight="17685" activeTab="1" xr2:uid="{45D12E3B-5CA2-4C44-8443-892C12B5CC19}"/>
+    <workbookView xWindow="-6075" yWindow="-16500" windowWidth="17235" windowHeight="12165" activeTab="1" xr2:uid="{8591A999-9396-4AAE-AB16-EA027D556C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>◐ KS Vendor Information Template</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,43 +57,18 @@
   </si>
   <si>
     <t>IT231232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IT Works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Via Prossima 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Torino, Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data\Output\Yearly-Report-2023-IT231232.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO892123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star Software</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aleea Rozelor 84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iasi, Romania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data\Output\Yearly-Report-2023-RO892123.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +214,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244F28CE-E9A3-4133-8960-E6B7051A8F4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C29603A-B2CF-46F7-A3FA-6804AE4AD9C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87455E7-4104-4D4C-8A5A-84CB80C196D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075DBC04-51EC-45A7-9BC7-82FAF5692565}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -599,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150B3F13-731D-4B45-B17F-B88D8DD65446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2445D8BE-9009-4D4D-9330-A5B53B645883}">
   <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -676,25 +651,15 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="str">
         <f t="shared" ref="B6:B50" si="0">IF(ISBLANK(C6), "", ROW()-4)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="str">
